--- a/presentations/sampling_Excel_example1.xlsx
+++ b/presentations/sampling_Excel_example1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\introstats_papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skye.wills\Documents\soil-pit\stats_for_soil_survey\presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="10800" windowHeight="10260" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="10800" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="175">
   <si>
     <t>no.</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Every 5th - start on 5</t>
   </si>
   <si>
-    <t>1 Group - group 5</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
   </si>
   <si>
     <t>Every 4th - start on 2</t>
-  </si>
-  <si>
-    <t>2 Groups - 5 and 2</t>
   </si>
   <si>
     <t>group</t>
@@ -563,6 +557,15 @@
   </si>
   <si>
     <t>depth</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>1 Group - Table 5</t>
+  </si>
+  <si>
+    <t>2 Groups - Tables 5 and 2</t>
   </si>
 </sst>
 </file>
@@ -1316,11 +1319,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="543618056"/>
-        <c:axId val="543609432"/>
+        <c:axId val="230397384"/>
+        <c:axId val="230398168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543618056"/>
+        <c:axId val="230397384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543609432"/>
+        <c:crossAx val="230398168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1357,7 +1360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543609432"/>
+        <c:axId val="230398168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543618056"/>
+        <c:crossAx val="230397384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1572,11 +1575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251301312"/>
-        <c:axId val="251301704"/>
+        <c:axId val="297919632"/>
+        <c:axId val="297920024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251301312"/>
+        <c:axId val="297919632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -1587,12 +1590,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251301704"/>
+        <c:crossAx val="297920024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251301704"/>
+        <c:axId val="297920024"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1621,7 +1624,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251301312"/>
+        <c:crossAx val="297919632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1936,11 +1939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251302488"/>
-        <c:axId val="251302880"/>
+        <c:axId val="297920808"/>
+        <c:axId val="297921200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251302488"/>
+        <c:axId val="297920808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,12 +1971,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251302880"/>
+        <c:crossAx val="297921200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251302880"/>
+        <c:axId val="297921200"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2002,7 +2005,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251302488"/>
+        <c:crossAx val="297920808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2133,8 +2136,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251303664"/>
-        <c:axId val="251304056"/>
+        <c:axId val="298054560"/>
+        <c:axId val="298054952"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2229,11 +2232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251304840"/>
-        <c:axId val="251304448"/>
+        <c:axId val="298055736"/>
+        <c:axId val="298055344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251303664"/>
+        <c:axId val="298054560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -2262,12 +2265,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251304056"/>
+        <c:crossAx val="298054952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251304056"/>
+        <c:axId val="298054952"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2296,12 +2299,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251303664"/>
+        <c:crossAx val="298054560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251304448"/>
+        <c:axId val="298055344"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2311,12 +2314,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251304840"/>
+        <c:crossAx val="298055736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251304840"/>
+        <c:axId val="298055736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251304448"/>
+        <c:crossAx val="298055344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2533,11 +2536,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251305624"/>
-        <c:axId val="251306016"/>
+        <c:axId val="298056520"/>
+        <c:axId val="298056912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251305624"/>
+        <c:axId val="298056520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,12 +2550,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251306016"/>
+        <c:crossAx val="298056912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251306016"/>
+        <c:axId val="298056912"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2563,7 +2566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251305624"/>
+        <c:crossAx val="298056520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2695,11 +2698,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="543617272"/>
-        <c:axId val="543618840"/>
+        <c:axId val="233898328"/>
+        <c:axId val="233898720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543617272"/>
+        <c:axId val="233898328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543618840"/>
+        <c:crossAx val="233898720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2736,7 +2739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543618840"/>
+        <c:axId val="233898720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,7 +2768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543617272"/>
+        <c:crossAx val="233898328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2891,11 +2894,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="543619624"/>
-        <c:axId val="543620016"/>
+        <c:axId val="233899504"/>
+        <c:axId val="233899896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543619624"/>
+        <c:axId val="233899504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2924,7 +2927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543620016"/>
+        <c:crossAx val="233899896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2932,7 +2935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543620016"/>
+        <c:axId val="233899896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2961,7 +2964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543619624"/>
+        <c:crossAx val="233899504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3127,11 +3130,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="543622368"/>
-        <c:axId val="543622760"/>
+        <c:axId val="233900680"/>
+        <c:axId val="233901072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543622368"/>
+        <c:axId val="233900680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,7 +3163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543622760"/>
+        <c:crossAx val="233901072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3168,7 +3171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543622760"/>
+        <c:axId val="233901072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543622368"/>
+        <c:crossAx val="233900680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3368,11 +3371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="543621584"/>
-        <c:axId val="543621192"/>
+        <c:axId val="232885128"/>
+        <c:axId val="232885520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543621584"/>
+        <c:axId val="232885128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543621192"/>
+        <c:crossAx val="232885520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3400,7 +3403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543621192"/>
+        <c:axId val="232885520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3411,7 +3414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543621584"/>
+        <c:crossAx val="232885128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3543,34 +3546,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3585,11 +3588,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="543623544"/>
-        <c:axId val="493843264"/>
+        <c:axId val="232886304"/>
+        <c:axId val="232886696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543623544"/>
+        <c:axId val="232886304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3609,7 +3612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493843264"/>
+        <c:crossAx val="232886696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3617,7 +3620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="493843264"/>
+        <c:axId val="232886696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,7 +3631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543623544"/>
+        <c:crossAx val="232886304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3853,8 +3856,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="543621976"/>
-        <c:axId val="165475488"/>
+        <c:axId val="232884736"/>
+        <c:axId val="232884344"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3920,11 +3923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="496600216"/>
-        <c:axId val="496607664"/>
+        <c:axId val="232883560"/>
+        <c:axId val="232883952"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="543621976"/>
+        <c:axId val="232884736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3933,7 +3936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="165475488"/>
+        <c:crossAx val="232884344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3941,7 +3944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165475488"/>
+        <c:axId val="232884344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3952,12 +3955,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543621976"/>
+        <c:crossAx val="232884736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496607664"/>
+        <c:axId val="232883952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3968,12 +3971,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="496600216"/>
+        <c:crossAx val="232883560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496600216"/>
+        <c:axId val="232883560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3983,7 +3986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="496607664"/>
+        <c:crossAx val="232883952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4114,11 +4117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="250869504"/>
-        <c:axId val="518108096"/>
+        <c:axId val="234305216"/>
+        <c:axId val="234305608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="250869504"/>
+        <c:axId val="234305216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4128,12 +4131,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518108096"/>
+        <c:crossAx val="234305608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518108096"/>
+        <c:axId val="234305608"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4144,7 +4147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250869504"/>
+        <c:crossAx val="234305216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4276,8 +4279,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251299352"/>
-        <c:axId val="251299744"/>
+        <c:axId val="234306392"/>
+        <c:axId val="297918064"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4372,11 +4375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251300528"/>
-        <c:axId val="251300136"/>
+        <c:axId val="297918848"/>
+        <c:axId val="297918456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251299352"/>
+        <c:axId val="234306392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4405,12 +4408,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251299744"/>
+        <c:crossAx val="297918064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251299744"/>
+        <c:axId val="297918064"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4440,12 +4443,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251299352"/>
+        <c:crossAx val="234306392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251300136"/>
+        <c:axId val="297918456"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4455,12 +4458,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251300528"/>
+        <c:crossAx val="297918848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251300528"/>
+        <c:axId val="297918848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,7 +4496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="251300136"/>
+        <c:crossAx val="297918456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5224,8 +5227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5235,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -5603,8 +5606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE442"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5619,7 +5622,7 @@
     <row r="1" spans="2:31" s="96" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="118"/>
       <c r="D2" s="118"/>
@@ -5644,20 +5647,20 @@
     <row r="4" spans="2:31" s="96" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B5" s="84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="96"/>
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="96" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H5" s="96"/>
       <c r="I5" s="96" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
@@ -5684,7 +5687,7 @@
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B6" s="86" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" s="91">
         <v>4.6699999999999998E-2</v>
@@ -5692,7 +5695,7 @@
       <c r="D6" s="96"/>
       <c r="E6" s="96"/>
       <c r="F6" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" s="97">
         <f>MIN(C6:C55)</f>
@@ -5700,7 +5703,7 @@
       </c>
       <c r="H6" s="96"/>
       <c r="I6" s="96" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J6" s="96">
         <f>G8</f>
@@ -5730,7 +5733,7 @@
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B7" s="86" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="91">
         <v>5.0599999999999999E-2</v>
@@ -5744,7 +5747,7 @@
       </c>
       <c r="H7" s="96"/>
       <c r="I7" s="96" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J7" s="98">
         <f>G10 - G8</f>
@@ -5774,7 +5777,7 @@
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B8" s="86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="91">
         <v>7.3200000000000001E-2</v>
@@ -5782,7 +5785,7 @@
       <c r="D8" s="96"/>
       <c r="E8" s="96"/>
       <c r="F8" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G8" s="99">
         <f>QUARTILE(C6:C55,1)</f>
@@ -5790,7 +5793,7 @@
       </c>
       <c r="H8" s="96"/>
       <c r="I8" s="96" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J8" s="98">
         <f>G11 - G10</f>
@@ -5820,7 +5823,7 @@
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B9" s="86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="91">
         <v>0.1051</v>
@@ -5828,7 +5831,7 @@
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
       <c r="F9" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G9" s="97">
         <f>AVERAGE(C6:C55)</f>
@@ -5836,7 +5839,7 @@
       </c>
       <c r="H9" s="96"/>
       <c r="I9" s="96" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J9" s="98">
         <f>G17</f>
@@ -5866,7 +5869,7 @@
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B10" s="86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="91">
         <v>0.1081</v>
@@ -5882,7 +5885,7 @@
       </c>
       <c r="H10" s="96"/>
       <c r="I10" s="96" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J10" s="98">
         <f>G18</f>
@@ -5912,7 +5915,7 @@
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B11" s="86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="91">
         <v>0.11799999999999999</v>
@@ -5920,7 +5923,7 @@
       <c r="D11" s="96"/>
       <c r="E11" s="96"/>
       <c r="F11" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G11" s="99">
         <f>QUARTILE(C6:C55,3)</f>
@@ -5953,7 +5956,7 @@
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B12" s="86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="91">
         <v>0.1321</v>
@@ -5961,7 +5964,7 @@
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
       <c r="F12" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G12" s="97">
         <f>G17+G9</f>
@@ -5994,7 +5997,7 @@
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B13" s="86" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="91">
         <v>0.1331</v>
@@ -6002,7 +6005,7 @@
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
       <c r="F13" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G13" s="97">
         <f>MAX(C6:C55)</f>
@@ -6035,7 +6038,7 @@
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B14" s="86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="91">
         <v>0.23039999999999999</v>
@@ -6071,7 +6074,7 @@
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B15" s="86" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="91">
         <v>0.23080000000000001</v>
@@ -6079,7 +6082,7 @@
       <c r="D15" s="96"/>
       <c r="E15" s="96"/>
       <c r="F15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="99">
         <f>STDEV(C6:C55)</f>
@@ -6112,7 +6115,7 @@
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B16" s="86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="91">
         <v>0.28129999999999999</v>
@@ -6120,7 +6123,7 @@
       <c r="D16" s="96"/>
       <c r="E16" s="96"/>
       <c r="F16" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G16" s="99">
         <f>COUNT(C6:C55)</f>
@@ -6153,7 +6156,7 @@
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B17" s="86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C17" s="91">
         <v>0.36149999999999999</v>
@@ -6161,7 +6164,7 @@
       <c r="D17" s="96"/>
       <c r="E17" s="96"/>
       <c r="F17" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G17" s="99">
         <f>CONFIDENCE(0.01,STDEV(C6:C55),COUNT(C6:C55))</f>
@@ -6194,7 +6197,7 @@
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B18" s="86" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="91">
         <v>0.37759999999999999</v>
@@ -6202,7 +6205,7 @@
       <c r="D18" s="96"/>
       <c r="E18" s="96"/>
       <c r="F18" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G18" s="99">
         <f>(G11-G8)*1.5</f>
@@ -6235,7 +6238,7 @@
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B19" s="86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="91">
         <v>0.45019999999999999</v>
@@ -6271,7 +6274,7 @@
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B20" s="86" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" s="91">
         <v>0.55879999999999996</v>
@@ -6307,7 +6310,7 @@
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B21" s="86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21" s="91">
         <v>0.6694</v>
@@ -6343,7 +6346,7 @@
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B22" s="86" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="91">
         <v>0.73180000000000001</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B23" s="86" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C23" s="91">
         <v>0.73409999999999997</v>
@@ -6415,7 +6418,7 @@
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B24" s="86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="91">
         <v>0.73939999999999995</v>
@@ -6451,7 +6454,7 @@
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B25" s="86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="91">
         <v>0.79500000000000004</v>
@@ -6487,7 +6490,7 @@
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B26" s="86" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C26" s="91">
         <v>0.83420000000000005</v>
@@ -6523,7 +6526,7 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B27" s="86" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" s="91">
         <v>0.83819999999999995</v>
@@ -6559,7 +6562,7 @@
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B28" s="86" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" s="91">
         <v>0.83830000000000005</v>
@@ -6595,7 +6598,7 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B29" s="86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" s="91">
         <v>0.87529999999999997</v>
@@ -6631,7 +6634,7 @@
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B30" s="86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="91">
         <v>0.88900000000000001</v>
@@ -6667,7 +6670,7 @@
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B31" s="86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" s="91">
         <v>1.0309999999999999</v>
@@ -6703,7 +6706,7 @@
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B32" s="86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" s="91">
         <v>1.0642</v>
@@ -6739,7 +6742,7 @@
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B33" s="86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C33" s="91">
         <v>1.135</v>
@@ -6775,7 +6778,7 @@
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B34" s="86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C34" s="91">
         <v>1.38</v>
@@ -19401,7 +19404,7 @@
   <dimension ref="B2:K60"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -19414,36 +19417,36 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="E2" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="F2" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="G2" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="H2" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="I2" s="101" t="s">
         <v>155</v>
-      </c>
-      <c r="H2" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="101" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" s="102">
         <v>0</v>
@@ -19466,10 +19469,10 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="101" t="s">
         <v>158</v>
-      </c>
-      <c r="C4" s="101" t="s">
-        <v>160</v>
       </c>
       <c r="D4" s="102">
         <v>18</v>
@@ -19492,10 +19495,10 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="102">
         <v>26</v>
@@ -19518,10 +19521,10 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="102">
         <v>43</v>
@@ -19544,10 +19547,10 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" s="102">
         <v>58</v>
@@ -19570,10 +19573,10 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" s="102">
         <v>76</v>
@@ -19596,10 +19599,10 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" s="102">
         <v>97</v>
@@ -19622,10 +19625,10 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10" s="101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" s="102">
         <v>114</v>
@@ -19648,10 +19651,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="101" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D11" s="102">
         <v>0</v>
@@ -19672,10 +19675,10 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="101" t="s">
         <v>167</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>169</v>
       </c>
       <c r="D12" s="102">
         <v>28</v>
@@ -19696,10 +19699,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="101" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13" s="102">
         <v>79</v>
@@ -19720,10 +19723,10 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="101" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="102">
         <v>119</v>
@@ -19771,33 +19774,33 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="101" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="101" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D23" s="101" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F23" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="101" t="s">
+      <c r="I23" s="101" t="s">
         <v>155</v>
-      </c>
-      <c r="H23" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="I23" s="101" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D24" s="102">
         <f t="shared" ref="D24:D31" si="0">D3+E3/2</f>
@@ -19819,10 +19822,10 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="101" t="s">
         <v>158</v>
-      </c>
-      <c r="C25" s="101" t="s">
-        <v>160</v>
       </c>
       <c r="D25" s="102">
         <f t="shared" si="0"/>
@@ -19844,10 +19847,10 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C26" s="101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D26" s="102">
         <f t="shared" si="0"/>
@@ -19869,10 +19872,10 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C27" s="101" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D27" s="102">
         <f t="shared" si="0"/>
@@ -19894,10 +19897,10 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D28" s="102">
         <f t="shared" si="0"/>
@@ -19919,10 +19922,10 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D29" s="102">
         <f t="shared" si="0"/>
@@ -19944,10 +19947,10 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D30" s="102">
         <f t="shared" si="0"/>
@@ -19969,10 +19972,10 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="102">
         <f t="shared" si="0"/>
@@ -19994,33 +19997,33 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="101" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C44" s="101" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E44" s="103" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F44" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="G44" s="101" t="s">
+      <c r="I44" s="101" t="s">
         <v>155</v>
-      </c>
-      <c r="H44" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="I44" s="101" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" s="101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45" s="102"/>
       <c r="E45" s="102">
@@ -20059,7 +20062,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C47" s="101" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" s="102"/>
       <c r="E47" s="102">
@@ -20098,7 +20101,7 @@
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="101" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D49" s="102"/>
       <c r="E49" s="102">
@@ -20137,7 +20140,7 @@
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="101" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D51" s="102"/>
       <c r="E51" s="102">
@@ -20176,7 +20179,7 @@
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C53" s="101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="102"/>
       <c r="E53" s="102">
@@ -20215,7 +20218,7 @@
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C55" s="101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="102"/>
       <c r="E55" s="102">
@@ -20254,7 +20257,7 @@
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C57" s="101" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="102"/>
       <c r="E57" s="102">
@@ -20293,7 +20296,7 @@
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C59" s="101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D59" s="102"/>
       <c r="E59" s="102">
@@ -20339,9 +20342,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21819,7 +21822,7 @@
       <c r="AB3" s="40"/>
       <c r="AC3" s="40"/>
       <c r="AF3" s="45" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="AG3" s="46"/>
       <c r="AH3" s="46"/>
@@ -21836,14 +21839,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="37">
         <v>75</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="39">
         <v>4.38</v>
@@ -21914,7 +21917,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="37">
         <v>73</v>
@@ -21935,7 +21938,7 @@
       </c>
       <c r="O5" s="49"/>
       <c r="P5" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="56">
         <f ca="1">STDEV(N4:N8)</f>
@@ -21954,7 +21957,7 @@
       </c>
       <c r="Y5" s="58"/>
       <c r="Z5" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA5" s="59">
         <f ca="1">STDEV(X4:X9)</f>
@@ -21971,7 +21974,7 @@
       </c>
       <c r="AH5" s="58"/>
       <c r="AI5" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ5" s="61">
         <f ca="1">STDEV(AG4:AG9)</f>
@@ -21995,7 +21998,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="39">
         <v>69</v>
@@ -22058,7 +22061,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="36">
         <f>MODE(D3:D37)</f>
@@ -22073,7 +22076,7 @@
       </c>
       <c r="O7" s="49"/>
       <c r="P7" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="48">
         <f ca="1">MEDIAN(N4:N8)</f>
@@ -22088,7 +22091,7 @@
       </c>
       <c r="Y7" s="58"/>
       <c r="Z7" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA7" s="58">
         <f ca="1">MEDIAN(X4:X9)</f>
@@ -22103,7 +22106,7 @@
       </c>
       <c r="AH7" s="58"/>
       <c r="AI7" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ7" s="61">
         <f ca="1">MEDIAN(AG4:AG9)</f>
@@ -22167,7 +22170,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="37">
         <v>69</v>
@@ -22204,7 +22207,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="37">
         <v>69</v>
@@ -22236,28 +22239,28 @@
         <v>2</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="37">
         <v>72</v>
       </c>
       <c r="E11" s="38"/>
       <c r="M11" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N11" s="63"/>
       <c r="O11" s="63"/>
       <c r="P11" s="63"/>
       <c r="Q11" s="64"/>
       <c r="W11" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X11" s="66"/>
       <c r="Y11" s="66"/>
       <c r="Z11" s="66"/>
       <c r="AA11" s="66"/>
       <c r="AF11" s="45" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="AG11" s="46"/>
       <c r="AH11" s="46"/>
@@ -22282,11 +22285,11 @@
       <c r="E12" s="38"/>
       <c r="M12" s="68">
         <f ca="1">RANDBETWEEN(1,35)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N12" s="68">
         <f t="shared" ref="N12:N16" ca="1" si="2">LOOKUP(M12,$A$3:$A$37,$D$4:$D$37)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O12" s="69"/>
       <c r="P12" s="69" t="s">
@@ -22294,7 +22297,7 @@
       </c>
       <c r="Q12" s="70">
         <f ca="1">AVERAGE(N12:N16)</f>
-        <v>68</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="W12" s="71">
         <v>2</v>
@@ -22319,7 +22322,7 @@
         <v>69</v>
       </c>
       <c r="AH12" s="52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AI12" s="55"/>
       <c r="AJ12" s="52"/>
@@ -22347,19 +22350,19 @@
       <c r="E13" s="38"/>
       <c r="M13" s="48">
         <f t="shared" ref="M13:M16" ca="1" si="5">RANDBETWEEN(1,35)</f>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N13" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="O13" s="49"/>
       <c r="P13" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="56">
         <f ca="1">STDEV(N12:N16)</f>
-        <v>5.3851648071345037</v>
+        <v>2.9664793948382648</v>
       </c>
       <c r="W13" s="51">
         <v>6</v>
@@ -22370,7 +22373,7 @@
       </c>
       <c r="Y13" s="52"/>
       <c r="Z13" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA13" s="74">
         <f ca="1">STDEV(X12:X17)</f>
@@ -22392,7 +22395,7 @@
       </c>
       <c r="AJ13" s="58"/>
       <c r="AK13" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL13" s="59">
         <f ca="1">STDEV(AI12:AI22)</f>
@@ -22415,11 +22418,11 @@
       <c r="E14" s="75"/>
       <c r="M14" s="48">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
@@ -22465,15 +22468,15 @@
       </c>
       <c r="M15" s="48">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N15" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O15" s="49"/>
       <c r="P15" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="48">
         <f ca="1">MEDIAN(N12:N16)</f>
@@ -22488,7 +22491,7 @@
       </c>
       <c r="Y15" s="58"/>
       <c r="Z15" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA15" s="58">
         <f ca="1">MEDIAN(X12:X17)</f>
@@ -22505,7 +22508,7 @@
       <c r="AI15" s="61"/>
       <c r="AJ15" s="58"/>
       <c r="AK15" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL15" s="76">
         <f ca="1">MEDIAN(AI12:AI22)</f>
@@ -22575,7 +22578,7 @@
       </c>
       <c r="E17" s="75"/>
       <c r="M17" s="77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -22599,7 +22602,7 @@
         <v>70</v>
       </c>
       <c r="AH17" s="58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AI17" s="61"/>
       <c r="AJ17" s="58"/>
@@ -22614,7 +22617,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="37">
         <v>71</v>
@@ -22622,11 +22625,11 @@
       <c r="E18" s="38"/>
       <c r="M18" s="68">
         <f ca="1">RANDBETWEEN(1,35)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N18" s="68">
         <f t="shared" ref="N18:N22" ca="1" si="6">LOOKUP(M18,$A$3:$A$37,$D$4:$D$37)</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="69" t="s">
@@ -22634,7 +22637,7 @@
       </c>
       <c r="Q18" s="70">
         <f ca="1">AVERAGE(N18:N22)</f>
-        <v>65.8</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="W18" s="58"/>
       <c r="X18" s="58"/>
@@ -22667,7 +22670,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="37">
         <v>72</v>
@@ -22675,19 +22678,19 @@
       <c r="E19" s="38"/>
       <c r="M19" s="48">
         <f t="shared" ref="M19:M22" ca="1" si="7">RANDBETWEEN(1,35)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N19" s="48">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O19" s="49"/>
       <c r="P19" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="56">
         <f ca="1">STDEV(N18:N22)</f>
-        <v>6.7601775124622288</v>
+        <v>4.3358966777357599</v>
       </c>
       <c r="AF19" s="60">
         <v>26</v>
@@ -22710,7 +22713,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="37">
         <v>72</v>
@@ -22718,11 +22721,11 @@
       <c r="E20" s="38"/>
       <c r="M20" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N20" s="48">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -22756,19 +22759,19 @@
       <c r="E21" s="38"/>
       <c r="M21" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="N21" s="48">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O21" s="49"/>
       <c r="P21" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="48">
         <f ca="1">MEDIAN(N18:N22)</f>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AF21" s="60">
         <v>28</v>
@@ -22799,11 +22802,11 @@
       <c r="E22" s="38"/>
       <c r="M22" s="48">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N22" s="48">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
@@ -22829,7 +22832,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="37">
         <v>76</v>
@@ -22857,7 +22860,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="37">
         <v>74</v>
@@ -22901,7 +22904,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="37">
         <v>71</v>
@@ -22916,7 +22919,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="37">
         <v>73</v>
@@ -22931,7 +22934,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="37">
         <v>71</v>
@@ -22946,7 +22949,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="37">
         <v>72</v>
@@ -22961,7 +22964,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="37">
         <v>66</v>
@@ -22976,7 +22979,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="37">
         <v>71</v>
@@ -23006,7 +23009,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="37">
         <v>71</v>
@@ -23021,7 +23024,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="37">
         <v>71</v>
@@ -23066,7 +23069,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="37">
         <v>72</v>
@@ -23194,7 +23197,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B56" s="104"/>
       <c r="C56" s="104"/>
@@ -23272,13 +23275,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -23361,7 +23364,7 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -23460,7 +23463,7 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8">
         <f>SQRT(K2/K5)</f>
@@ -23511,7 +23514,7 @@
         <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10">
         <f>STDEV(D2:D26)</f>
@@ -23846,7 +23849,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -23874,7 +23877,7 @@
         <v>61</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>21</v>
@@ -24242,7 +24245,7 @@
         <v>25.806399999999982</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>53</v>
@@ -25347,7 +25350,7 @@
         <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -25379,10 +25382,10 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -25422,7 +25425,7 @@
         <v>69</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" s="7">
         <v>6.8</v>
@@ -25445,7 +25448,7 @@
         <v>62</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="7">
         <v>6</v>
@@ -25468,7 +25471,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -25489,7 +25492,7 @@
         <v>67</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="7">
         <v>10</v>
@@ -25510,7 +25513,7 @@
         <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" s="7">
         <v>-3.0888065564609568</v>
@@ -25531,7 +25534,7 @@
         <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7">
         <v>5.7336317020506306E-3</v>
@@ -25552,7 +25555,7 @@
         <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G12" s="7">
         <v>1.8124611021972235</v>
@@ -25573,7 +25576,7 @@
         <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7">
         <v>1.1467263404101261E-2</v>
@@ -25594,7 +25597,7 @@
         <v>75</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="8">
         <v>2.2281388424258681</v>
@@ -25798,10 +25801,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -25810,7 +25813,7 @@
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.3471601823081627</v>
+        <v>0.65225076141662885</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>19</v>
@@ -25823,7 +25826,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B51" ca="1" si="0">RAND()</f>
-        <v>0.85508261960103571</v>
+        <v>0.66721527863887964</v>
       </c>
       <c r="D3" s="7">
         <v>0.1</v>
@@ -25836,7 +25839,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13162104849825751</v>
+        <v>0.43233085492492018</v>
       </c>
       <c r="D4" s="7">
         <v>0.2</v>
@@ -25849,7 +25852,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98269692749855431</v>
+        <v>6.8260561238915329E-2</v>
       </c>
       <c r="D5" s="7">
         <v>0.3</v>
@@ -25862,7 +25865,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63693080281832259</v>
+        <v>6.9953636950699338E-2</v>
       </c>
       <c r="D6" s="7">
         <v>0.4</v>
@@ -25875,7 +25878,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5133744866736842E-2</v>
+        <v>0.47872341529355134</v>
       </c>
       <c r="D7" s="7">
         <v>0.5</v>
@@ -25888,7 +25891,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16578483724474768</v>
+        <v>0.88148069074059532</v>
       </c>
       <c r="D8" s="7">
         <v>0.6</v>
@@ -25901,7 +25904,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43598837963438009</v>
+        <v>2.1831397277637943E-2</v>
       </c>
       <c r="D9" s="7">
         <v>0.7</v>
@@ -25914,7 +25917,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55496993561959596</v>
+        <v>0.7541859501729854</v>
       </c>
       <c r="D10" s="7">
         <v>0.8</v>
@@ -25927,7 +25930,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93913412116694617</v>
+        <v>0.91968728404690536</v>
       </c>
       <c r="D11" s="7">
         <v>0.9</v>
@@ -25940,7 +25943,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26214185636911203</v>
+        <v>3.08147958256757E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -25949,7 +25952,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11043086982780903</v>
+        <v>0.7658267957423045</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>19</v>
@@ -25964,7 +25967,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68648430496231272</v>
+        <v>0.72220034943075595</v>
       </c>
       <c r="D14" s="80">
         <v>0.1</v>
@@ -25979,7 +25982,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71527064920572736</v>
+        <v>0.81202369874301639</v>
       </c>
       <c r="D15" s="80">
         <v>0.2</v>
@@ -25994,7 +25997,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34557848191095086</v>
+        <v>0.62189207099442267</v>
       </c>
       <c r="D16" s="80">
         <v>0.3</v>
@@ -26009,7 +26012,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20250955710681462</v>
+        <v>0.85953674387788515</v>
       </c>
       <c r="D17" s="80">
         <v>0.4</v>
@@ -26024,7 +26027,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35423139449904273</v>
+        <v>0.38991533592676852</v>
       </c>
       <c r="D18" s="80">
         <v>0.5</v>
@@ -26039,7 +26042,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71243955553184113</v>
+        <v>0.50115447751135733</v>
       </c>
       <c r="D19" s="80">
         <v>0.6</v>
@@ -26054,7 +26057,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98438887340632042</v>
+        <v>7.0887832238724191E-2</v>
       </c>
       <c r="D20" s="80">
         <v>0.7</v>
@@ -26069,7 +26072,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76672395244684555</v>
+        <v>0.58423902120643334</v>
       </c>
       <c r="D21" s="80">
         <v>0.8</v>
@@ -26084,7 +26087,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55244705419103002</v>
+        <v>0.74934806476022919</v>
       </c>
       <c r="D22" s="80">
         <v>0.9</v>
@@ -26099,7 +26102,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62168579960698744</v>
+        <v>0.14406607408625649</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>20</v>
@@ -26114,7 +26117,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86700649130460195</v>
+        <v>0.5418891865164166</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -26123,7 +26126,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96768093773451058</v>
+        <v>0.658185922639829</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -26132,7 +26135,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27990270496712166</v>
+        <v>0.18412683453943823</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -26141,7 +26144,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72330504556938324</v>
+        <v>0.98438253937133791</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -26150,7 +26153,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36552520930106625</v>
+        <v>0.72339895650661001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -26159,7 +26162,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25511570543982687</v>
+        <v>0.49605656704620216</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -26168,7 +26171,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58022721232680696</v>
+        <v>5.4903922432924746E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -26177,7 +26180,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11589781200104576</v>
+        <v>0.76204389020223717</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -26186,7 +26189,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33867843780353835</v>
+        <v>0.99513826684476325</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -26195,7 +26198,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94142170448584006</v>
+        <v>0.84470567509777228</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -26204,7 +26207,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8761439977338652</v>
+        <v>0.98493933126734368</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -26213,7 +26216,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38315299740403386</v>
+        <v>0.10685746449137323</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -26222,7 +26225,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88657421156860761</v>
+        <v>0.55121501234577719</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -26231,7 +26234,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28465287698697472</v>
+        <v>0.27562263100430029</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -26240,7 +26243,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13785912888236451</v>
+        <v>0.59186811854698917</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -26249,7 +26252,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20344655787168009</v>
+        <v>0.61999506582437391</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -26258,7 +26261,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96431338291873225</v>
+        <v>0.80531403736237139</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -26267,7 +26270,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20087765245610645</v>
+        <v>0.57605223552123852</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -26276,7 +26279,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90551631456847681</v>
+        <v>0.97072031921682278</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -26285,7 +26288,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41796840142214298</v>
+        <v>0.87900268694866057</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -26294,7 +26297,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62973407993076047</v>
+        <v>6.3513906692119315E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -26303,7 +26306,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23764581679961305</v>
+        <v>0.61645341739840176</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -26312,7 +26315,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71768370761063438</v>
+        <v>0.67770002985737443</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -26321,7 +26324,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47282784495288599</v>
+        <v>0.85219029893539733</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -26330,7 +26333,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45408918348233007</v>
+        <v>0.76853758026003316</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -26339,7 +26342,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85800539025147626</v>
+        <v>0.84655288449724619</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -26348,7 +26351,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35575166216822141</v>
+        <v>0.42738187380750037</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -26357,7 +26360,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36301125158405367</v>
+        <v>0.31444984040985446</v>
       </c>
     </row>
   </sheetData>
@@ -26397,7 +26400,7 @@
     <row r="2" spans="1:27" s="82" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="89"/>
       <c r="B2" s="109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="110"/>
       <c r="D2" s="110"/>
@@ -26409,7 +26412,7 @@
     <row r="3" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="90"/>
       <c r="B3" s="112" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="113"/>
       <c r="D3" s="113"/>
@@ -26467,21 +26470,21 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="82"/>
       <c r="E5" s="115" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" s="116"/>
       <c r="G5" s="85" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5" s="85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I5" s="82"/>
       <c r="J5" s="82"/>
@@ -26505,7 +26508,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" s="86" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="91">
         <v>5.0599999999999999E-2</v>
@@ -26546,7 +26549,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" s="86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="91">
         <v>0.1321</v>
@@ -26589,7 +26592,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B8" s="86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="91">
         <v>0.1081</v>
@@ -26631,7 +26634,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9" s="86" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" s="91">
         <v>0.1331</v>
@@ -26674,7 +26677,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10" s="86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="91">
         <v>0.45019999999999999</v>
@@ -26717,7 +26720,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B11" s="86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="91">
         <v>0.11799999999999999</v>
@@ -26760,7 +26763,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12" s="86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" s="91">
         <v>0.88900000000000001</v>
@@ -26803,7 +26806,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" s="86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="91">
         <v>0.23039999999999999</v>
@@ -26846,7 +26849,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14" s="86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="91">
         <v>0.6694</v>
@@ -26889,7 +26892,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" s="86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="91">
         <v>0.73939999999999995</v>
@@ -26929,7 +26932,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" s="86" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="91">
         <v>0.23080000000000001</v>
@@ -26961,7 +26964,7 @@
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="91">
         <v>0.1051</v>
@@ -26993,7 +26996,7 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="86" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="91">
         <v>4.6699999999999998E-2</v>
@@ -27030,7 +27033,7 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="86" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="91">
         <v>0.37759999999999999</v>
@@ -27067,7 +27070,7 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="91">
         <v>1.135</v>
@@ -27099,7 +27102,7 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="86" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="91">
         <v>0.83830000000000005</v>
@@ -27131,7 +27134,7 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="91">
         <v>7.3200000000000001E-2</v>
@@ -27163,7 +27166,7 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" s="91">
         <v>0.28129999999999999</v>
@@ -27195,7 +27198,7 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C24" s="91">
         <v>0.36149999999999999</v>
@@ -27227,7 +27230,7 @@
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" s="86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C25" s="91">
         <v>1.0642</v>
@@ -27259,7 +27262,7 @@
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26" s="86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" s="91">
         <v>1.0309999999999999</v>
@@ -27291,7 +27294,7 @@
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27" s="86" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C27" s="91">
         <v>0.73180000000000001</v>
@@ -27323,7 +27326,7 @@
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28" s="86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" s="91">
         <v>1.38</v>
@@ -27355,7 +27358,7 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" s="86" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C29" s="91">
         <v>0.55879999999999996</v>
@@ -27387,7 +27390,7 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30" s="86" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" s="91">
         <v>0.83420000000000005</v>
@@ -27419,7 +27422,7 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B31" s="86" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" s="91">
         <v>0.73409999999999997</v>
@@ -27451,7 +27454,7 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B32" s="86" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="91">
         <v>0.83819999999999995</v>
@@ -27483,7 +27486,7 @@
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33" s="86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="91">
         <v>0.79500000000000004</v>
@@ -27515,7 +27518,7 @@
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B34" s="86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34" s="91">
         <v>0.87529999999999997</v>
@@ -28362,7 +28365,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="117" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -28452,21 +28455,21 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="82"/>
       <c r="B4" s="84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" s="82"/>
       <c r="E4" s="115" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" s="116"/>
       <c r="G4" s="85" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I4" s="82"/>
       <c r="J4" s="82"/>
@@ -28495,7 +28498,7 @@
       </c>
       <c r="C5" s="86">
         <f ca="1">RAND()</f>
-        <v>0.963649137498088</v>
+        <v>0.70597353200461743</v>
       </c>
       <c r="D5" s="82"/>
       <c r="E5" s="86">
@@ -28510,7 +28513,7 @@
       </c>
       <c r="H5" s="87">
         <f ca="1">COUNTIFS(C5:C54,"&lt;" &amp; F5,C5:C54,"&gt;" &amp; E5)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I5" s="82"/>
       <c r="J5" s="82"/>
@@ -28539,7 +28542,7 @@
       </c>
       <c r="C6" s="86">
         <f t="shared" ref="C6:C54" ca="1" si="0">RAND()</f>
-        <v>0.71831240203500935</v>
+        <v>2.0907968617369987E-2</v>
       </c>
       <c r="D6" s="82"/>
       <c r="E6" s="86">
@@ -28554,7 +28557,7 @@
       </c>
       <c r="H6" s="87">
         <f t="shared" ref="H6:H14" ca="1" si="2">COUNTIFS(C6:C55,"&lt;" &amp; F6,C6:C55,"&gt;" &amp; E6)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I6" s="82"/>
       <c r="J6" s="82"/>
@@ -28583,7 +28586,7 @@
       </c>
       <c r="C7" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6542318658231242</v>
+        <v>0.91625193020428575</v>
       </c>
       <c r="D7" s="82"/>
       <c r="E7" s="86">
@@ -28598,7 +28601,7 @@
       </c>
       <c r="H7" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I7" s="82"/>
       <c r="J7" s="82"/>
@@ -28627,7 +28630,7 @@
       </c>
       <c r="C8" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91645115493142637</v>
+        <v>0.91921468480413959</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="86">
@@ -28642,7 +28645,7 @@
       </c>
       <c r="H8" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" s="82"/>
       <c r="J8" s="82"/>
@@ -28671,7 +28674,7 @@
       </c>
       <c r="C9" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9900146945887448</v>
+        <v>0.94314426113270311</v>
       </c>
       <c r="D9" s="82"/>
       <c r="E9" s="86">
@@ -28686,7 +28689,7 @@
       </c>
       <c r="H9" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
@@ -28715,7 +28718,7 @@
       </c>
       <c r="C10" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27405822236682764</v>
+        <v>1.6949816137522222E-2</v>
       </c>
       <c r="D10" s="82"/>
       <c r="E10" s="86">
@@ -28730,7 +28733,7 @@
       </c>
       <c r="H10" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="82"/>
       <c r="J10" s="82"/>
@@ -28759,7 +28762,7 @@
       </c>
       <c r="C11" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24072558965991853</v>
+        <v>0.21222723010471545</v>
       </c>
       <c r="D11" s="82"/>
       <c r="E11" s="86">
@@ -28774,7 +28777,7 @@
       </c>
       <c r="H11" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="82"/>
@@ -28803,7 +28806,7 @@
       </c>
       <c r="C12" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31010548149559669</v>
+        <v>0.97961155526251398</v>
       </c>
       <c r="D12" s="82"/>
       <c r="E12" s="86">
@@ -28818,7 +28821,7 @@
       </c>
       <c r="H12" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
@@ -28847,7 +28850,7 @@
       </c>
       <c r="C13" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99447778775610762</v>
+        <v>0.29244349817333937</v>
       </c>
       <c r="D13" s="82"/>
       <c r="E13" s="86">
@@ -28891,7 +28894,7 @@
       </c>
       <c r="C14" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88871629378547379</v>
+        <v>0.17870911249073607</v>
       </c>
       <c r="D14" s="82"/>
       <c r="E14" s="86">
@@ -28906,7 +28909,7 @@
       </c>
       <c r="H14" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
@@ -28935,7 +28938,7 @@
       </c>
       <c r="C15" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4206209955336504</v>
+        <v>0.41935835441398461</v>
       </c>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
@@ -28969,7 +28972,7 @@
       </c>
       <c r="C16" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6013771403138346</v>
+        <v>0.33592253205662204</v>
       </c>
       <c r="D16" s="82"/>
       <c r="E16" s="82"/>
@@ -29003,7 +29006,7 @@
       </c>
       <c r="C17" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13282483996947503</v>
+        <v>0.38189022501919756</v>
       </c>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -29037,7 +29040,7 @@
       </c>
       <c r="C18" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5005292432758921</v>
+        <v>4.2044365846168885E-3</v>
       </c>
       <c r="D18" s="82"/>
       <c r="E18" s="82"/>
@@ -29071,7 +29074,7 @@
       </c>
       <c r="C19" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23190058938900759</v>
+        <v>0.65484267163518917</v>
       </c>
       <c r="D19" s="82"/>
       <c r="E19" s="82"/>
@@ -29105,7 +29108,7 @@
       </c>
       <c r="C20" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22311706758503602</v>
+        <v>0.97216777017382316</v>
       </c>
       <c r="D20" s="82"/>
       <c r="E20" s="82"/>
@@ -29139,7 +29142,7 @@
       </c>
       <c r="C21" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85192153498547585</v>
+        <v>0.83469556665737976</v>
       </c>
       <c r="D21" s="82"/>
       <c r="E21" s="82"/>
@@ -29173,7 +29176,7 @@
       </c>
       <c r="C22" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62886856627409737</v>
+        <v>0.37614478265953943</v>
       </c>
       <c r="D22" s="82"/>
       <c r="E22" s="82"/>
@@ -29207,7 +29210,7 @@
       </c>
       <c r="C23" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98336681041336904</v>
+        <v>0.33663405016302006</v>
       </c>
       <c r="D23" s="82"/>
       <c r="E23" s="82"/>
@@ -29241,7 +29244,7 @@
       </c>
       <c r="C24" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66948188269175535</v>
+        <v>3.2985572021723475E-2</v>
       </c>
       <c r="D24" s="82"/>
       <c r="E24" s="82"/>
@@ -29275,7 +29278,7 @@
       </c>
       <c r="C25" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32730789158240259</v>
+        <v>0.13964551043684481</v>
       </c>
       <c r="D25" s="82"/>
       <c r="E25" s="82"/>
@@ -29309,7 +29312,7 @@
       </c>
       <c r="C26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24876595171426019</v>
+        <v>0.14559532916156415</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="82"/>
@@ -29343,7 +29346,7 @@
       </c>
       <c r="C27" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99927599069819306</v>
+        <v>0.46445035233890397</v>
       </c>
       <c r="D27" s="82"/>
       <c r="E27" s="82"/>
@@ -29377,7 +29380,7 @@
       </c>
       <c r="C28" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97313646958785083</v>
+        <v>0.24609082812506833</v>
       </c>
       <c r="D28" s="82"/>
       <c r="E28" s="82"/>
@@ -29411,7 +29414,7 @@
       </c>
       <c r="C29" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71414896071343681</v>
+        <v>0.4716768161944046</v>
       </c>
       <c r="D29" s="82"/>
       <c r="E29" s="82"/>
@@ -29445,7 +29448,7 @@
       </c>
       <c r="C30" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72047367969682252</v>
+        <v>7.7085975967005615E-2</v>
       </c>
       <c r="D30" s="82"/>
       <c r="E30" s="82"/>
@@ -29479,7 +29482,7 @@
       </c>
       <c r="C31" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81018641342703868</v>
+        <v>0.77052390556378536</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="82"/>
@@ -29513,7 +29516,7 @@
       </c>
       <c r="C32" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1900351401514917E-2</v>
+        <v>0.88632722845802003</v>
       </c>
       <c r="D32" s="82"/>
       <c r="E32" s="82"/>
@@ -29547,7 +29550,7 @@
       </c>
       <c r="C33" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42165296208009495</v>
+        <v>0.62638956156762904</v>
       </c>
       <c r="D33" s="82"/>
       <c r="E33" s="82"/>
@@ -29581,7 +29584,7 @@
       </c>
       <c r="C34" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49072535206822632</v>
+        <v>0.51871567478209368</v>
       </c>
       <c r="D34" s="82"/>
       <c r="E34" s="82"/>
@@ -29615,7 +29618,7 @@
       </c>
       <c r="C35" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43090728351105434</v>
+        <v>0.59912514820438845</v>
       </c>
       <c r="D35" s="82"/>
       <c r="E35" s="82"/>
@@ -29649,7 +29652,7 @@
       </c>
       <c r="C36" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21040813481053</v>
+        <v>0.77387137297832576</v>
       </c>
       <c r="D36" s="82"/>
       <c r="E36" s="82"/>
@@ -29683,7 +29686,7 @@
       </c>
       <c r="C37" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44054139365455747</v>
+        <v>0.43076116349322657</v>
       </c>
       <c r="D37" s="82"/>
       <c r="E37" s="82"/>
@@ -29717,7 +29720,7 @@
       </c>
       <c r="C38" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9078516217297095E-2</v>
+        <v>0.65996593238052315</v>
       </c>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -29751,7 +29754,7 @@
       </c>
       <c r="C39" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58346555593532745</v>
+        <v>2.7965611818780656E-2</v>
       </c>
       <c r="D39" s="82"/>
       <c r="E39" s="82"/>
@@ -29785,7 +29788,7 @@
       </c>
       <c r="C40" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90576670406345472</v>
+        <v>0.45138268114358782</v>
       </c>
       <c r="D40" s="82"/>
       <c r="E40" s="82"/>
@@ -29819,7 +29822,7 @@
       </c>
       <c r="C41" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3597927639223433E-2</v>
+        <v>0.40689344316639853</v>
       </c>
       <c r="D41" s="82"/>
       <c r="E41" s="82"/>
@@ -29853,7 +29856,7 @@
       </c>
       <c r="C42" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21238736118839363</v>
+        <v>0.14939858089265978</v>
       </c>
       <c r="D42" s="82"/>
       <c r="E42" s="82"/>
@@ -29887,7 +29890,7 @@
       </c>
       <c r="C43" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47287080398492809</v>
+        <v>4.3197240136146453E-2</v>
       </c>
       <c r="D43" s="82"/>
       <c r="E43" s="82"/>
@@ -29921,7 +29924,7 @@
       </c>
       <c r="C44" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93926924002229539</v>
+        <v>0.18045027133470615</v>
       </c>
       <c r="D44" s="82"/>
       <c r="E44" s="82"/>
@@ -29955,7 +29958,7 @@
       </c>
       <c r="C45" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77428422292280996</v>
+        <v>0.38799447224241379</v>
       </c>
       <c r="D45" s="82"/>
       <c r="E45" s="82"/>
@@ -29989,7 +29992,7 @@
       </c>
       <c r="C46" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56133924042417238</v>
+        <v>0.94216432484130286</v>
       </c>
       <c r="D46" s="82"/>
       <c r="E46" s="82"/>
@@ -30023,7 +30026,7 @@
       </c>
       <c r="C47" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14521091743442549</v>
+        <v>0.28078926163336493</v>
       </c>
       <c r="D47" s="82"/>
       <c r="E47" s="82"/>
@@ -30057,7 +30060,7 @@
       </c>
       <c r="C48" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63401129902298603</v>
+        <v>0.32028047804274173</v>
       </c>
       <c r="D48" s="82"/>
       <c r="E48" s="82"/>
@@ -30091,7 +30094,7 @@
       </c>
       <c r="C49" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51625380074023686</v>
+        <v>0.21042197392256401</v>
       </c>
       <c r="D49" s="82"/>
       <c r="E49" s="82"/>
@@ -30125,7 +30128,7 @@
       </c>
       <c r="C50" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7831945638337473</v>
+        <v>0.13196024591673783</v>
       </c>
       <c r="D50" s="82"/>
       <c r="E50" s="82"/>
@@ -30159,7 +30162,7 @@
       </c>
       <c r="C51" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18712260580631579</v>
+        <v>0.90226681018957033</v>
       </c>
       <c r="D51" s="82"/>
       <c r="E51" s="82"/>
@@ -30193,7 +30196,7 @@
       </c>
       <c r="C52" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64257641548510414</v>
+        <v>0.1303174633680152</v>
       </c>
       <c r="D52" s="82"/>
       <c r="E52" s="82"/>
@@ -30227,7 +30230,7 @@
       </c>
       <c r="C53" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71417436343345575</v>
+        <v>0.88161719299814156</v>
       </c>
       <c r="D53" s="82"/>
       <c r="E53" s="82"/>
@@ -30261,7 +30264,7 @@
       </c>
       <c r="C54" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12637295339973786</v>
+        <v>0.48662383750460458</v>
       </c>
       <c r="D54" s="82"/>
       <c r="E54" s="82"/>
